--- a/xlsx/歐盟_intext.xlsx
+++ b/xlsx/歐盟_intext.xlsx
@@ -29,7 +29,7 @@
     <t>保加利亚语</t>
   </si>
   <si>
-    <t>政策_政策_美國_歐盟</t>
+    <t>体育运动_体育运动_南非_歐盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A%E8%AF%AD</t>
